--- a/data/rrv_ipm_trial_2019.xlsx
+++ b/data/rrv_ipm_trial_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/afife_ufl_edu/Documents/DISSERTATION/MANUSCRIPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2079" documentId="8_{962484AE-32D7-44A9-86C0-5DFAE18C1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FD91E3-A37C-44CE-A59F-0D5C2D77C73D}"/>
+  <xr:revisionPtr revIDLastSave="2082" documentId="8_{962484AE-32D7-44A9-86C0-5DFAE18C1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A640CFC5-EE7B-4EEE-AC5A-3B42E1FAD47D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13575" yWindow="5580" windowWidth="9975" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 IPM Trials" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="167">
   <si>
     <t>Block, Plant, Treat</t>
   </si>
@@ -89,9 +89,6 @@
     <t>C7K</t>
   </si>
   <si>
-    <t>1 (maybe a thrips nymph)</t>
-  </si>
-  <si>
     <t>C8K</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
   </si>
   <si>
     <t>Y32+</t>
-  </si>
-  <si>
-    <t>&gt;100</t>
   </si>
 </sst>
 </file>
@@ -978,8 +972,8 @@
   <dimension ref="A1:F486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K492" sqref="K492"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,7 +1359,7 @@
         <v>43770</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
@@ -1373,7 +1367,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="10">
         <v>0</v>
@@ -1385,7 +1379,7 @@
         <v>43752</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>8</v>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
@@ -1405,7 +1399,7 @@
         <v>43770</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>8</v>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
@@ -1431,7 +1425,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
@@ -1443,7 +1437,7 @@
         <v>43752</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>8</v>
@@ -1451,7 +1445,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
@@ -1469,7 +1463,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="10">
         <v>0</v>
@@ -1481,7 +1475,7 @@
         <v>43770</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>8</v>
@@ -1547,7 +1541,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -1565,7 +1559,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -1585,7 +1579,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -1621,7 +1615,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -1677,7 +1671,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -1697,7 +1691,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -1717,7 +1711,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="10">
         <v>0</v>
@@ -1729,7 +1723,7 @@
         <v>43752</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>8</v>
@@ -1737,7 +1731,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="10">
         <v>0</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="10">
         <v>0</v>
@@ -1767,7 +1761,7 @@
         <v>43785</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>8</v>
@@ -1775,7 +1769,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="10">
         <v>0</v>
@@ -1787,7 +1781,7 @@
         <v>43752</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
@@ -1795,7 +1789,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="10">
         <v>0</v>
@@ -1807,7 +1801,7 @@
         <v>43785</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>8</v>
@@ -1815,7 +1809,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="10">
         <v>0</v>
@@ -1833,7 +1827,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="10">
         <v>0</v>
@@ -1845,7 +1839,7 @@
         <v>43752</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>8</v>
@@ -1853,7 +1847,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="10">
         <v>0</v>
@@ -1865,7 +1859,7 @@
         <v>43785</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>8</v>
@@ -1873,7 +1867,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="10">
         <v>0</v>
@@ -1891,7 +1885,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="10">
         <v>0</v>
@@ -1903,7 +1897,7 @@
         <v>43752</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>8</v>
@@ -1911,7 +1905,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="10">
         <v>0</v>
@@ -1929,7 +1923,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="10">
         <v>0</v>
@@ -1941,7 +1935,7 @@
         <v>43785</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>8</v>
@@ -1949,7 +1943,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="10">
         <v>0</v>
@@ -1961,7 +1955,7 @@
         <v>43752</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>8</v>
@@ -1969,7 +1963,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="10">
         <v>0</v>
@@ -1987,7 +1981,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" s="10">
         <v>0</v>
@@ -1999,7 +1993,7 @@
         <v>43785</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>8</v>
@@ -2007,7 +2001,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -2019,7 +2013,7 @@
         <v>43752</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>8</v>
@@ -2027,7 +2021,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="10">
         <v>0</v>
@@ -2039,7 +2033,7 @@
         <v>43810</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>8</v>
@@ -2047,7 +2041,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="10">
         <v>0</v>
@@ -2059,7 +2053,7 @@
         <v>43785</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>8</v>
@@ -2067,7 +2061,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -2087,7 +2081,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -2105,7 +2099,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -2123,7 +2117,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -2143,7 +2137,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -2161,7 +2155,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -2179,7 +2173,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -2199,7 +2193,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -2219,7 +2213,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -2237,7 +2231,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -2255,7 +2249,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -2273,7 +2267,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -2293,7 +2287,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -2313,7 +2307,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -2333,7 +2327,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -2353,7 +2347,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -2373,7 +2367,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -2391,7 +2385,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -2409,7 +2403,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="10">
         <v>0</v>
@@ -2421,7 +2415,7 @@
         <v>43752</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>8</v>
@@ -2429,7 +2423,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="10">
         <v>0</v>
@@ -2447,7 +2441,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="10">
         <v>0</v>
@@ -2459,7 +2453,7 @@
         <v>43770</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>8</v>
@@ -2517,7 +2511,7 @@
         <v>43790</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>8</v>
@@ -2525,7 +2519,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="10">
         <v>0</v>
@@ -2543,7 +2537,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="10">
         <v>0</v>
@@ -2561,7 +2555,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="10">
         <v>0</v>
@@ -2573,7 +2567,7 @@
         <v>43770</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>8</v>
@@ -2581,7 +2575,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="10">
         <v>0</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="10">
         <v>0</v>
@@ -2611,7 +2605,7 @@
         <v>43770</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>8</v>
@@ -2619,7 +2613,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="10">
         <v>0</v>
@@ -2687,7 +2681,7 @@
         <v>43790</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>8</v>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="10">
         <v>0</v>
@@ -2707,7 +2701,7 @@
         <v>43752</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>8</v>
@@ -2715,7 +2709,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="10">
         <v>0</v>
@@ -2727,7 +2721,7 @@
         <v>43785</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>8</v>
@@ -2735,7 +2729,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="10">
         <v>0</v>
@@ -2747,7 +2741,7 @@
         <v>43810</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>8</v>
@@ -2755,7 +2749,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="10">
         <v>0</v>
@@ -2767,7 +2761,7 @@
         <v>43752</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>8</v>
@@ -2775,7 +2769,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" s="10">
         <v>0</v>
@@ -2787,7 +2781,7 @@
         <v>43785</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>8</v>
@@ -2795,7 +2789,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="10">
         <v>0</v>
@@ -2813,7 +2807,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="10">
         <v>0</v>
@@ -2825,7 +2819,7 @@
         <v>43752</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>8</v>
@@ -2833,7 +2827,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="10">
         <v>0</v>
@@ -2845,7 +2839,7 @@
         <v>43785</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>8</v>
@@ -2853,7 +2847,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="10">
         <v>0</v>
@@ -2921,7 +2915,7 @@
         <v>43790</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>8</v>
@@ -2929,7 +2923,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -2947,7 +2941,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -2967,7 +2961,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -2987,7 +2981,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -3007,7 +3001,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -3025,7 +3019,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -3037,7 +3031,7 @@
         <v>43785</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>8</v>
@@ -3045,7 +3039,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="10">
         <v>0</v>
@@ -3057,7 +3051,7 @@
         <v>43752</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>8</v>
@@ -3065,7 +3059,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -3083,7 +3077,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="10">
         <v>0</v>
@@ -3095,7 +3089,7 @@
         <v>43752</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>8</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="10">
         <v>0</v>
@@ -3115,7 +3109,7 @@
         <v>43790</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>8</v>
@@ -3123,7 +3117,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="10">
         <v>0</v>
@@ -3135,7 +3129,7 @@
         <v>43761</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>8</v>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -3161,7 +3155,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -3173,7 +3167,7 @@
         <v>43790</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>8</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -3193,7 +3187,7 @@
         <v>43761</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>8</v>
@@ -3201,7 +3195,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -3213,7 +3207,7 @@
         <v>43752</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>8</v>
@@ -3221,7 +3215,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -3239,7 +3233,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -3257,7 +3251,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -3275,7 +3269,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -3295,7 +3289,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -3313,7 +3307,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3329,7 +3323,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -3369,7 +3363,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
@@ -3389,7 +3383,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
@@ -3409,7 +3403,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -3427,7 +3421,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -3439,7 +3433,7 @@
         <v>43752</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>8</v>
@@ -3447,7 +3441,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -3465,7 +3459,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -3483,7 +3477,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -3495,7 +3489,7 @@
         <v>43752</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>8</v>
@@ -3503,7 +3497,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -3515,7 +3509,7 @@
         <v>43804</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>8</v>
@@ -3523,7 +3517,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -3535,7 +3529,7 @@
         <v>43770</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>8</v>
@@ -3543,7 +3537,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -3555,7 +3549,7 @@
         <v>43752</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>8</v>
@@ -3563,7 +3557,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -3575,7 +3569,7 @@
         <v>43770</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>8</v>
@@ -3583,7 +3577,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -3601,7 +3595,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -3621,7 +3615,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -3639,7 +3633,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -3657,7 +3651,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -3677,7 +3671,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -3697,7 +3691,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
@@ -3715,7 +3709,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
@@ -3735,7 +3729,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -3753,7 +3747,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
@@ -3776,8 +3770,8 @@
       <c r="B145" s="3">
         <v>0</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>19</v>
+      <c r="C145" s="3">
+        <v>1</v>
       </c>
       <c r="D145" s="1">
         <v>43761</v>
@@ -3821,7 +3815,7 @@
         <v>43790</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>8</v>
@@ -3829,7 +3823,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
@@ -3849,7 +3843,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -3867,7 +3861,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
@@ -3887,7 +3881,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -3925,7 +3919,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -3943,7 +3937,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -3963,7 +3957,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -3972,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="1">
-        <v>42690</v>
+        <v>43785</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>7</v>
@@ -3983,7 +3977,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -4001,7 +3995,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -4021,7 +4015,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -4033,7 +4027,7 @@
         <v>43752</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>8</v>
@@ -4041,7 +4035,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -4053,7 +4047,7 @@
         <v>43790</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>8</v>
@@ -4061,7 +4055,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -4081,7 +4075,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -4099,7 +4093,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -4111,7 +4105,7 @@
         <v>43790</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>8</v>
@@ -4119,7 +4113,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -4139,7 +4133,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -4159,7 +4153,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -4179,7 +4173,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -4199,7 +4193,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -4219,7 +4213,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -4239,7 +4233,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -4259,7 +4253,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -4295,7 +4289,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -4307,7 +4301,7 @@
         <v>43752</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>8</v>
@@ -4315,7 +4309,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B173" s="3">
         <v>0</v>
@@ -4335,7 +4329,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -4353,13 +4347,13 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>168</v>
+      <c r="C175" s="3">
+        <v>100</v>
       </c>
       <c r="D175" s="1">
         <v>43752</v>
@@ -4373,7 +4367,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -4393,7 +4387,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -4413,7 +4407,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -4433,7 +4427,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -4453,7 +4447,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -4473,7 +4467,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B181" s="10">
         <v>0</v>
@@ -4485,7 +4479,7 @@
         <v>43752</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>8</v>
@@ -4493,7 +4487,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B182" s="10">
         <v>0</v>
@@ -4505,7 +4499,7 @@
         <v>43770</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>8</v>
@@ -4513,7 +4507,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B183" s="10">
         <v>0</v>
@@ -4525,7 +4519,7 @@
         <v>43804</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>8</v>
@@ -4533,7 +4527,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B184" s="10">
         <v>0</v>
@@ -4545,7 +4539,7 @@
         <v>43752</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>8</v>
@@ -4553,7 +4547,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B185" s="10">
         <v>0</v>
@@ -4571,7 +4565,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B186" s="10">
         <v>0</v>
@@ -4589,7 +4583,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="10">
         <v>0</v>
@@ -4601,7 +4595,7 @@
         <v>43752</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>8</v>
@@ -4609,7 +4603,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B188" s="10">
         <v>0</v>
@@ -4627,7 +4621,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B189" s="10">
         <v>0</v>
@@ -4645,7 +4639,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -4665,7 +4659,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -4683,7 +4677,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -4701,7 +4695,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -4721,7 +4715,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -4741,7 +4735,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -4759,7 +4753,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B196" s="11">
         <v>0</v>
@@ -4779,7 +4773,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -4797,7 +4791,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -4815,7 +4809,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B199" s="10">
         <v>0</v>
@@ -4827,7 +4821,7 @@
         <v>43752</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>8</v>
@@ -4835,7 +4829,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B200" s="10">
         <v>0</v>
@@ -4847,7 +4841,7 @@
         <v>43810</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>8</v>
@@ -4855,7 +4849,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B201" s="10">
         <v>0</v>
@@ -4867,7 +4861,7 @@
         <v>43785</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>8</v>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B202" s="10">
         <v>0</v>
@@ -4887,7 +4881,7 @@
         <v>43752</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>8</v>
@@ -4895,7 +4889,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B203" s="10">
         <v>0</v>
@@ -4907,7 +4901,7 @@
         <v>43810</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>8</v>
@@ -4915,7 +4909,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B204" s="10">
         <v>0</v>
@@ -4927,7 +4921,7 @@
         <v>43785</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>8</v>
@@ -4935,7 +4929,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B205" s="10">
         <v>0</v>
@@ -4947,7 +4941,7 @@
         <v>43752</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>8</v>
@@ -4955,7 +4949,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B206" s="10">
         <v>0</v>
@@ -4973,7 +4967,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B207" s="10">
         <v>0</v>
@@ -4985,7 +4979,7 @@
         <v>43785</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>8</v>
@@ -4993,7 +4987,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -5013,7 +5007,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B209" s="10">
         <v>0</v>
@@ -5025,7 +5019,7 @@
         <v>43752</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>8</v>
@@ -5033,7 +5027,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B210" s="10">
         <v>0</v>
@@ -5051,7 +5045,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B211" s="10">
         <v>0</v>
@@ -5063,7 +5057,7 @@
         <v>43785</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>8</v>
@@ -5071,7 +5065,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B212" s="10">
         <v>0</v>
@@ -5083,7 +5077,7 @@
         <v>43752</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>8</v>
@@ -5091,7 +5085,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B213" s="10">
         <v>0</v>
@@ -5109,7 +5103,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B214" s="10">
         <v>0</v>
@@ -5121,7 +5115,7 @@
         <v>43785</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>8</v>
@@ -5129,7 +5123,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B215" s="10">
         <v>0</v>
@@ -5147,7 +5141,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B216" s="10">
         <v>0</v>
@@ -5159,7 +5153,7 @@
         <v>43752</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>8</v>
@@ -5167,7 +5161,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B217" s="10">
         <v>0</v>
@@ -5179,7 +5173,7 @@
         <v>43785</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>8</v>
@@ -5187,7 +5181,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -5207,7 +5201,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -5227,7 +5221,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -5247,7 +5241,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -5267,7 +5261,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -5287,7 +5281,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -5307,7 +5301,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -5327,7 +5321,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -5347,7 +5341,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -5367,7 +5361,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B227" s="10">
         <v>0</v>
@@ -5379,7 +5373,7 @@
         <v>43752</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>8</v>
@@ -5387,7 +5381,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B228" s="10">
         <v>0</v>
@@ -5399,7 +5393,7 @@
         <v>43790</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>8</v>
@@ -5407,7 +5401,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B229" s="10">
         <v>0</v>
@@ -5419,7 +5413,7 @@
         <v>43761</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>8</v>
@@ -5427,7 +5421,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B230" s="10">
         <v>0</v>
@@ -5439,7 +5433,7 @@
         <v>43752</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>8</v>
@@ -5447,7 +5441,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B231" s="10">
         <v>0</v>
@@ -5465,7 +5459,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B232" s="10">
         <v>0</v>
@@ -5477,7 +5471,7 @@
         <v>43790</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>8</v>
@@ -5485,7 +5479,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B233" s="10">
         <v>0</v>
@@ -5503,7 +5497,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B234" s="10">
         <v>0</v>
@@ -5515,7 +5509,7 @@
         <v>43790</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>8</v>
@@ -5523,7 +5517,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B235" s="10">
         <v>0</v>
@@ -5541,7 +5535,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B236" s="10">
         <v>0</v>
@@ -5553,7 +5547,7 @@
         <v>43752</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>8</v>
@@ -5561,7 +5555,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B237" s="10">
         <v>0</v>
@@ -5573,7 +5567,7 @@
         <v>43770</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>8</v>
@@ -5581,7 +5575,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B238" s="10">
         <v>0</v>
@@ -5599,7 +5593,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B239" s="10">
         <v>0</v>
@@ -5611,7 +5605,7 @@
         <v>43752</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>8</v>
@@ -5619,7 +5613,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B240" s="10">
         <v>0</v>
@@ -5637,7 +5631,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B241" s="10">
         <v>0</v>
@@ -5655,7 +5649,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B242" s="10">
         <v>0</v>
@@ -5667,7 +5661,7 @@
         <v>43752</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>8</v>
@@ -5675,7 +5669,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B243" s="10">
         <v>0</v>
@@ -5687,7 +5681,7 @@
         <v>43770</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>8</v>
@@ -5695,7 +5689,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B244" s="10">
         <v>0</v>
@@ -5713,7 +5707,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -5733,7 +5727,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B246" s="3">
         <v>0</v>
@@ -5751,7 +5745,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -5771,7 +5765,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
@@ -5791,7 +5785,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -5809,7 +5803,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B250" s="3">
         <v>0</v>
@@ -5829,7 +5823,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -5847,7 +5841,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -5867,7 +5861,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -5885,7 +5879,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B254" s="3">
         <v>0</v>
@@ -5905,7 +5899,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -5925,7 +5919,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -5943,7 +5937,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B257" s="3">
         <v>0</v>
@@ -5963,7 +5957,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B258" s="3">
         <v>0</v>
@@ -5983,7 +5977,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B259" s="3">
         <v>0</v>
@@ -6003,7 +5997,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B260" s="3">
         <v>0</v>
@@ -6023,7 +6017,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B261" s="3">
         <v>0</v>
@@ -6043,7 +6037,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B262" s="3">
         <v>0</v>
@@ -6061,7 +6055,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B263" s="13">
         <v>0</v>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B264" s="10">
         <v>0</v>
@@ -6091,7 +6085,7 @@
         <v>43785</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>8</v>
@@ -6099,7 +6093,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B265" s="10">
         <v>0</v>
@@ -6117,7 +6111,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B266" s="10">
         <v>0</v>
@@ -6135,7 +6129,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B267" s="10">
         <v>0</v>
@@ -6147,7 +6141,7 @@
         <v>43752</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>8</v>
@@ -6155,7 +6149,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B268" s="10">
         <v>0</v>
@@ -6167,7 +6161,7 @@
         <v>43785</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>8</v>
@@ -6175,7 +6169,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B269" s="10">
         <v>0</v>
@@ -6187,7 +6181,7 @@
         <v>43752</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>8</v>
@@ -6195,7 +6189,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B270" s="10">
         <v>0</v>
@@ -6213,7 +6207,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B271" s="10">
         <v>0</v>
@@ -6225,7 +6219,7 @@
         <v>43785</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>8</v>
@@ -6233,7 +6227,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B272" s="3">
         <v>0</v>
@@ -6246,12 +6240,12 @@
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B273" s="3">
         <v>0</v>
@@ -6264,12 +6258,12 @@
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B274" s="3">
         <v>0</v>
@@ -6282,12 +6276,12 @@
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B275" s="3">
         <v>0</v>
@@ -6299,15 +6293,15 @@
         <v>43795</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B276" s="3">
         <v>0</v>
@@ -6322,12 +6316,12 @@
         <v>7</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B277" s="3">
         <v>0</v>
@@ -6340,12 +6334,12 @@
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B278" s="3">
         <v>0</v>
@@ -6360,12 +6354,12 @@
         <v>7</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B279" s="3">
         <v>0</v>
@@ -6378,12 +6372,12 @@
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B280" s="3">
         <v>0</v>
@@ -6396,12 +6390,12 @@
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B281" s="3">
         <v>0</v>
@@ -6414,12 +6408,12 @@
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B282" s="3">
         <v>0</v>
@@ -6432,12 +6426,12 @@
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B283" s="3">
         <v>0</v>
@@ -6450,12 +6444,12 @@
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B284" s="10">
         <v>0</v>
@@ -6468,12 +6462,12 @@
       </c>
       <c r="E284" s="10"/>
       <c r="F284" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B285" s="10">
         <v>0</v>
@@ -6486,12 +6480,12 @@
       </c>
       <c r="E285" s="10"/>
       <c r="F285" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B286" s="10">
         <v>0</v>
@@ -6504,12 +6498,12 @@
       </c>
       <c r="E286" s="10"/>
       <c r="F286" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B287" s="10">
         <v>0</v>
@@ -6522,12 +6516,12 @@
       </c>
       <c r="E287" s="10"/>
       <c r="F287" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B288" s="10">
         <v>0</v>
@@ -6540,12 +6534,12 @@
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B289" s="10">
         <v>0</v>
@@ -6558,12 +6552,12 @@
       </c>
       <c r="E289" s="10"/>
       <c r="F289" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B290" s="10">
         <v>0</v>
@@ -6576,12 +6570,12 @@
       </c>
       <c r="E290" s="10"/>
       <c r="F290" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B291" s="10">
         <v>0</v>
@@ -6594,12 +6588,12 @@
       </c>
       <c r="E291" s="10"/>
       <c r="F291" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B292" s="10">
         <v>0</v>
@@ -6611,15 +6605,15 @@
         <v>43782</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B293" s="10">
         <v>0</v>
@@ -6632,12 +6626,12 @@
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B294" s="10">
         <v>0</v>
@@ -6650,12 +6644,12 @@
       </c>
       <c r="E294" s="10"/>
       <c r="F294" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B295" s="10">
         <v>0</v>
@@ -6668,12 +6662,12 @@
       </c>
       <c r="E295" s="10"/>
       <c r="F295" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B296" s="10">
         <v>0</v>
@@ -6685,15 +6679,15 @@
         <v>43747</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B297" s="10">
         <v>0</v>
@@ -6705,15 +6699,15 @@
         <v>43747</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B298" s="10">
         <v>0</v>
@@ -6725,15 +6719,15 @@
         <v>43761</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B299" s="10">
         <v>0</v>
@@ -6745,15 +6739,15 @@
         <v>43795</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B300" s="3">
         <v>0</v>
@@ -6766,12 +6760,12 @@
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B301" s="3">
         <v>0</v>
@@ -6784,12 +6778,12 @@
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B302" s="3">
         <v>0</v>
@@ -6802,12 +6796,12 @@
       </c>
       <c r="E302" s="10"/>
       <c r="F302" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B303" s="10">
         <v>0</v>
@@ -6820,12 +6814,12 @@
       </c>
       <c r="E303" s="10"/>
       <c r="F303" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B304" s="3">
         <v>0</v>
@@ -6838,12 +6832,12 @@
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B305" s="3">
         <v>0</v>
@@ -6856,12 +6850,12 @@
       </c>
       <c r="E305" s="10"/>
       <c r="F305" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B306" s="10">
         <v>0</v>
@@ -6873,15 +6867,15 @@
         <v>43782</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B307" s="10">
         <v>0</v>
@@ -6893,15 +6887,15 @@
         <v>43761</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B308" s="10">
         <v>0</v>
@@ -6914,12 +6908,12 @@
       </c>
       <c r="E308" s="10"/>
       <c r="F308" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B309" s="10">
         <v>0</v>
@@ -6932,12 +6926,12 @@
       </c>
       <c r="E309" s="10"/>
       <c r="F309" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B310" s="10">
         <v>0</v>
@@ -6950,12 +6944,12 @@
       </c>
       <c r="E310" s="10"/>
       <c r="F310" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B311" s="10">
         <v>0</v>
@@ -6968,12 +6962,12 @@
       </c>
       <c r="E311" s="10"/>
       <c r="F311" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B312" s="3">
         <v>0</v>
@@ -6986,12 +6980,12 @@
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B313" s="3">
         <v>0</v>
@@ -7003,15 +6997,15 @@
         <v>43747</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B314" s="3">
         <v>0</v>
@@ -7023,15 +7017,15 @@
         <v>43782</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B315" s="10">
         <v>0</v>
@@ -7044,12 +7038,12 @@
       </c>
       <c r="E315" s="10"/>
       <c r="F315" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B316" s="10">
         <v>0</v>
@@ -7062,12 +7056,12 @@
       </c>
       <c r="E316" s="10"/>
       <c r="F316" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B317" s="10">
         <v>0</v>
@@ -7079,15 +7073,15 @@
         <v>43795</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B318" s="10">
         <v>0</v>
@@ -7100,12 +7094,12 @@
       </c>
       <c r="E318" s="10"/>
       <c r="F318" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B319" s="10">
         <v>0</v>
@@ -7117,15 +7111,15 @@
         <v>43795</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B320" s="10">
         <v>0</v>
@@ -7138,12 +7132,12 @@
       </c>
       <c r="E320" s="10"/>
       <c r="F320" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B321" s="10">
         <v>0</v>
@@ -7156,12 +7150,12 @@
       </c>
       <c r="E321" s="10"/>
       <c r="F321" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B322" s="10">
         <v>0</v>
@@ -7174,12 +7168,12 @@
       </c>
       <c r="E322" s="10"/>
       <c r="F322" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B323" s="10">
         <v>0</v>
@@ -7192,12 +7186,12 @@
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B324" s="10">
         <v>0</v>
@@ -7209,15 +7203,15 @@
         <v>43789</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B325" s="10">
         <v>0</v>
@@ -7230,12 +7224,12 @@
       </c>
       <c r="E325" s="10"/>
       <c r="F325" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B326" s="10">
         <v>0</v>
@@ -7248,12 +7242,12 @@
       </c>
       <c r="E326" s="10"/>
       <c r="F326" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B327" s="10">
         <v>0</v>
@@ -7265,15 +7259,15 @@
         <v>43747</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B328" s="10">
         <v>0</v>
@@ -7286,12 +7280,12 @@
       </c>
       <c r="E328" s="10"/>
       <c r="F328" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B329" s="10">
         <v>0</v>
@@ -7304,12 +7298,12 @@
       </c>
       <c r="E329" s="10"/>
       <c r="F329" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B330" s="10">
         <v>0</v>
@@ -7322,12 +7316,12 @@
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B331" s="10">
         <v>0</v>
@@ -7340,12 +7334,12 @@
       </c>
       <c r="E331" s="10"/>
       <c r="F331" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B332" s="10">
         <v>0</v>
@@ -7358,12 +7352,12 @@
       </c>
       <c r="E332" s="10"/>
       <c r="F332" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B333" s="10">
         <v>0</v>
@@ -7376,12 +7370,12 @@
       </c>
       <c r="E333" s="10"/>
       <c r="F333" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B334" s="10">
         <v>0</v>
@@ -7393,15 +7387,15 @@
         <v>43747</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B335" s="10">
         <v>0</v>
@@ -7414,12 +7408,12 @@
       </c>
       <c r="E335" s="10"/>
       <c r="F335" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B336" s="10">
         <v>0</v>
@@ -7432,12 +7426,12 @@
       </c>
       <c r="E336" s="10"/>
       <c r="F336" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B337" s="10">
         <v>0</v>
@@ -7450,12 +7444,12 @@
       </c>
       <c r="E337" s="10"/>
       <c r="F337" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B338" s="10">
         <v>0</v>
@@ -7468,12 +7462,12 @@
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B339" s="10">
         <v>0</v>
@@ -7485,15 +7479,15 @@
         <v>43747</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B340" s="10">
         <v>0</v>
@@ -7506,12 +7500,12 @@
       </c>
       <c r="E340" s="10"/>
       <c r="F340" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B341" s="10">
         <v>0</v>
@@ -7524,12 +7518,12 @@
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B342" s="10">
         <v>0</v>
@@ -7542,12 +7536,12 @@
       </c>
       <c r="E342" s="10"/>
       <c r="F342" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B343" s="10">
         <v>0</v>
@@ -7560,12 +7554,12 @@
       </c>
       <c r="E343" s="10"/>
       <c r="F343" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B344" s="3">
         <v>0</v>
@@ -7578,12 +7572,12 @@
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B345" s="3">
         <v>0</v>
@@ -7596,12 +7590,12 @@
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B346" s="3">
         <v>0</v>
@@ -7614,12 +7608,12 @@
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B347" s="10">
         <v>0</v>
@@ -7631,15 +7625,15 @@
         <v>43747</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B348" s="3">
         <v>0</v>
@@ -7652,12 +7646,12 @@
       </c>
       <c r="E348" s="2"/>
       <c r="F348" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B349" s="3">
         <v>0</v>
@@ -7670,12 +7664,12 @@
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B350" s="3">
         <v>0</v>
@@ -7687,15 +7681,15 @@
         <v>43747</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B351" s="10">
         <v>0</v>
@@ -7707,15 +7701,15 @@
         <v>43795</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B352" s="3">
         <v>0</v>
@@ -7728,12 +7722,12 @@
       </c>
       <c r="E352" s="2"/>
       <c r="F352" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B353" s="3">
         <v>0</v>
@@ -7745,15 +7739,15 @@
         <v>43776</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B354" s="3">
         <v>0</v>
@@ -7765,15 +7759,15 @@
         <v>43747</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B355" s="3">
         <v>0</v>
@@ -7786,12 +7780,12 @@
       </c>
       <c r="E355" s="10"/>
       <c r="F355" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B356" s="10">
         <v>0</v>
@@ -7804,12 +7798,12 @@
       </c>
       <c r="E356" s="10"/>
       <c r="F356" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B357" s="10">
         <v>0</v>
@@ -7822,12 +7816,12 @@
       </c>
       <c r="E357" s="10"/>
       <c r="F357" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B358" s="10">
         <v>0</v>
@@ -7840,12 +7834,12 @@
       </c>
       <c r="E358" s="10"/>
       <c r="F358" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B359" s="10">
         <v>0</v>
@@ -7857,15 +7851,15 @@
         <v>43747</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B360" s="10">
         <v>0</v>
@@ -7878,12 +7872,12 @@
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B361" s="10">
         <v>0</v>
@@ -7896,12 +7890,12 @@
       </c>
       <c r="E361" s="10"/>
       <c r="F361" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B362" s="10">
         <v>0</v>
@@ -7914,12 +7908,12 @@
       </c>
       <c r="E362" s="10"/>
       <c r="F362" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B363" s="10">
         <v>0</v>
@@ -7932,12 +7926,12 @@
       </c>
       <c r="E363" s="10"/>
       <c r="F363" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B364" s="10">
         <v>0</v>
@@ -7950,12 +7944,12 @@
       </c>
       <c r="E364" s="10"/>
       <c r="F364" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B365" s="10">
         <v>0</v>
@@ -7968,12 +7962,12 @@
       </c>
       <c r="E365" s="10"/>
       <c r="F365" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B366" s="10">
         <v>0</v>
@@ -7986,12 +7980,12 @@
       </c>
       <c r="E366" s="10"/>
       <c r="F366" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B367" s="10">
         <v>0</v>
@@ -8003,15 +7997,15 @@
         <v>43795</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B368" s="10">
         <v>0</v>
@@ -8023,15 +8017,15 @@
         <v>43782</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B369" s="10">
         <v>0</v>
@@ -8043,15 +8037,15 @@
         <v>43747</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B370" s="10">
         <v>0</v>
@@ -8064,12 +8058,12 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B371" s="10">
         <v>0</v>
@@ -8082,12 +8076,12 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B372" s="10">
         <v>0</v>
@@ -8100,12 +8094,12 @@
       </c>
       <c r="E372" s="10"/>
       <c r="F372" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B373" s="10">
         <v>0</v>
@@ -8117,15 +8111,15 @@
         <v>43747</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B374" s="10">
         <v>0</v>
@@ -8137,15 +8131,15 @@
         <v>43747</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B375" s="10">
         <v>0</v>
@@ -8157,15 +8151,15 @@
         <v>43761</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B376" s="10">
         <v>0</v>
@@ -8178,12 +8172,12 @@
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B377" s="10">
         <v>0</v>
@@ -8196,12 +8190,12 @@
       </c>
       <c r="E377" s="10"/>
       <c r="F377" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B378" s="10">
         <v>0</v>
@@ -8214,12 +8208,12 @@
       </c>
       <c r="E378" s="10"/>
       <c r="F378" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B379" s="10">
         <v>0</v>
@@ -8232,12 +8226,12 @@
       </c>
       <c r="E379" s="10"/>
       <c r="F379" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B380" s="10">
         <v>0</v>
@@ -8249,15 +8243,15 @@
         <v>43747</v>
       </c>
       <c r="E380" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B381" s="10">
         <v>0</v>
@@ -8270,12 +8264,12 @@
       </c>
       <c r="E381" s="10"/>
       <c r="F381" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B382" s="10">
         <v>0</v>
@@ -8288,12 +8282,12 @@
       </c>
       <c r="E382" s="10"/>
       <c r="F382" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B383" s="10">
         <v>0</v>
@@ -8306,12 +8300,12 @@
       </c>
       <c r="E383" s="10"/>
       <c r="F383" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B384" s="10">
         <v>0</v>
@@ -8324,12 +8318,12 @@
       </c>
       <c r="E384" s="10"/>
       <c r="F384" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B385" s="10">
         <v>0</v>
@@ -8341,15 +8335,15 @@
         <v>43747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B386" s="10">
         <v>0</v>
@@ -8362,12 +8356,12 @@
       </c>
       <c r="E386" s="10"/>
       <c r="F386" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B387" s="10">
         <v>0</v>
@@ -8379,15 +8373,15 @@
         <v>43747</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B388" s="10">
         <v>0</v>
@@ -8400,12 +8394,12 @@
       </c>
       <c r="E388" s="10"/>
       <c r="F388" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B389" s="10">
         <v>0</v>
@@ -8418,12 +8412,12 @@
       </c>
       <c r="E389" s="10"/>
       <c r="F389" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B390" s="3">
         <v>0</v>
@@ -8436,12 +8430,12 @@
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B391" s="3">
         <v>0</v>
@@ -8454,12 +8448,12 @@
       </c>
       <c r="E391" s="2"/>
       <c r="F391" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B392" s="3">
         <v>0</v>
@@ -8474,12 +8468,12 @@
         <v>7</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B393" s="3">
         <v>0</v>
@@ -8492,12 +8486,12 @@
       </c>
       <c r="E393" s="2"/>
       <c r="F393" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B394" s="10">
         <v>0</v>
@@ -8510,12 +8504,12 @@
       </c>
       <c r="E394" s="10"/>
       <c r="F394" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B395" s="10">
         <v>0</v>
@@ -8528,12 +8522,12 @@
       </c>
       <c r="E395" s="10"/>
       <c r="F395" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B396" s="10">
         <v>0</v>
@@ -8546,12 +8540,12 @@
       </c>
       <c r="E396" s="10"/>
       <c r="F396" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B397" s="10">
         <v>0</v>
@@ -8564,12 +8558,12 @@
       </c>
       <c r="E397" s="10"/>
       <c r="F397" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B398" s="3">
         <v>0</v>
@@ -8584,12 +8578,12 @@
         <v>7</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B399" s="3">
         <v>0</v>
@@ -8604,12 +8598,12 @@
         <v>7</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B400" s="3">
         <v>0</v>
@@ -8624,12 +8618,12 @@
         <v>7</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B401" s="3">
         <v>0</v>
@@ -8642,12 +8636,12 @@
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B402" s="3">
         <v>0</v>
@@ -8660,12 +8654,12 @@
       </c>
       <c r="E402" s="2"/>
       <c r="F402" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B403" s="3">
         <v>0</v>
@@ -8678,12 +8672,12 @@
       </c>
       <c r="E403" s="2"/>
       <c r="F403" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B404" s="3">
         <v>0</v>
@@ -8698,12 +8692,12 @@
         <v>7</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B405" s="3">
         <v>0</v>
@@ -8716,12 +8710,12 @@
       </c>
       <c r="E405" s="2"/>
       <c r="F405" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B406" s="10">
         <v>0</v>
@@ -8734,12 +8728,12 @@
       </c>
       <c r="E406" s="10"/>
       <c r="F406" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B407" s="10">
         <v>0</v>
@@ -8752,12 +8746,12 @@
       </c>
       <c r="E407" s="10"/>
       <c r="F407" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B408" s="10">
         <v>0</v>
@@ -8769,15 +8763,15 @@
         <v>43747</v>
       </c>
       <c r="E408" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B409" s="10">
         <v>0</v>
@@ -8790,12 +8784,12 @@
       </c>
       <c r="E409" s="10"/>
       <c r="F409" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B410" s="10">
         <v>0</v>
@@ -8808,12 +8802,12 @@
       </c>
       <c r="E410" s="10"/>
       <c r="F410" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B411" s="10">
         <v>0</v>
@@ -8826,12 +8820,12 @@
       </c>
       <c r="E411" s="10"/>
       <c r="F411" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B412" s="10">
         <v>0</v>
@@ -8844,12 +8838,12 @@
       </c>
       <c r="E412" s="10"/>
       <c r="F412" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B413" s="10">
         <v>0</v>
@@ -8862,12 +8856,12 @@
       </c>
       <c r="E413" s="10"/>
       <c r="F413" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B414" s="10">
         <v>0</v>
@@ -8880,12 +8874,12 @@
       </c>
       <c r="E414" s="10"/>
       <c r="F414" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B415" s="10">
         <v>0</v>
@@ -8898,12 +8892,12 @@
       </c>
       <c r="E415" s="10"/>
       <c r="F415" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B416" s="10">
         <v>0</v>
@@ -8916,12 +8910,12 @@
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B417" s="10">
         <v>0</v>
@@ -8933,15 +8927,15 @@
         <v>43747</v>
       </c>
       <c r="E417" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B418" s="10">
         <v>0</v>
@@ -8954,12 +8948,12 @@
       </c>
       <c r="E418" s="10"/>
       <c r="F418" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B419" s="10">
         <v>0</v>
@@ -8972,12 +8966,12 @@
       </c>
       <c r="E419" s="10"/>
       <c r="F419" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B420" s="10">
         <v>0</v>
@@ -8989,15 +8983,15 @@
         <v>43754</v>
       </c>
       <c r="E420" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B421" s="10">
         <v>0</v>
@@ -9010,12 +9004,12 @@
       </c>
       <c r="E421" s="10"/>
       <c r="F421" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B422" s="10">
         <v>0</v>
@@ -9028,12 +9022,12 @@
       </c>
       <c r="E422" s="10"/>
       <c r="F422" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B423" s="10">
         <v>0</v>
@@ -9046,12 +9040,12 @@
       </c>
       <c r="E423" s="10"/>
       <c r="F423" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B424" s="10">
         <v>0</v>
@@ -9063,15 +9057,15 @@
         <v>43795</v>
       </c>
       <c r="E424" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B425" s="10">
         <v>0</v>
@@ -9083,15 +9077,15 @@
         <v>43754</v>
       </c>
       <c r="E425" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B426" s="10">
         <v>0</v>
@@ -9103,15 +9097,15 @@
         <v>43776</v>
       </c>
       <c r="E426" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B427" s="10">
         <v>0</v>
@@ -9124,12 +9118,12 @@
       </c>
       <c r="E427" s="10"/>
       <c r="F427" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B428" s="10">
         <v>0</v>
@@ -9142,12 +9136,12 @@
       </c>
       <c r="E428" s="10"/>
       <c r="F428" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B429" s="10">
         <v>0</v>
@@ -9159,15 +9153,15 @@
         <v>43747</v>
       </c>
       <c r="E429" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B430" s="3">
         <v>0</v>
@@ -9182,12 +9176,12 @@
         <v>7</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B431" s="3">
         <v>0</v>
@@ -9200,12 +9194,12 @@
       </c>
       <c r="E431" s="2"/>
       <c r="F431" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B432" s="3">
         <v>0</v>
@@ -9218,12 +9212,12 @@
       </c>
       <c r="E432" s="2"/>
       <c r="F432" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B433" s="3">
         <v>0</v>
@@ -9236,12 +9230,12 @@
       </c>
       <c r="E433" s="2"/>
       <c r="F433" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B434" s="3">
         <v>0</v>
@@ -9254,12 +9248,12 @@
       </c>
       <c r="E434" s="2"/>
       <c r="F434" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B435" s="3">
         <v>0</v>
@@ -9272,12 +9266,12 @@
       </c>
       <c r="E435" s="2"/>
       <c r="F435" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B436" s="3">
         <v>0</v>
@@ -9290,12 +9284,12 @@
       </c>
       <c r="E436" s="2"/>
       <c r="F436" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B437" s="3">
         <v>0</v>
@@ -9307,15 +9301,15 @@
         <v>43795</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B438" s="3">
         <v>0</v>
@@ -9328,12 +9322,12 @@
       </c>
       <c r="E438" s="2"/>
       <c r="F438" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B439" s="3">
         <v>0</v>
@@ -9348,12 +9342,12 @@
         <v>7</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B440" s="3">
         <v>0</v>
@@ -9366,12 +9360,12 @@
       </c>
       <c r="E440" s="2"/>
       <c r="F440" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B441" s="3">
         <v>0</v>
@@ -9384,12 +9378,12 @@
       </c>
       <c r="E441" s="2"/>
       <c r="F441" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B442" s="10">
         <v>0</v>
@@ -9402,12 +9396,12 @@
       </c>
       <c r="E442" s="10"/>
       <c r="F442" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B443" s="10">
         <v>0</v>
@@ -9419,15 +9413,15 @@
         <v>43782</v>
       </c>
       <c r="E443" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B444" s="10">
         <v>0</v>
@@ -9440,12 +9434,12 @@
       </c>
       <c r="E444" s="10"/>
       <c r="F444" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B445" s="10">
         <v>0</v>
@@ -9458,12 +9452,12 @@
       </c>
       <c r="E445" s="10"/>
       <c r="F445" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B446" s="10">
         <v>0</v>
@@ -9476,12 +9470,12 @@
       </c>
       <c r="E446" s="10"/>
       <c r="F446" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B447" s="10">
         <v>0</v>
@@ -9493,15 +9487,15 @@
         <v>43782</v>
       </c>
       <c r="E447" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B448" s="10">
         <v>0</v>
@@ -9513,15 +9507,15 @@
         <v>43795</v>
       </c>
       <c r="E448" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B449" s="10">
         <v>0</v>
@@ -9533,15 +9527,15 @@
         <v>43747</v>
       </c>
       <c r="E449" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B450" s="10">
         <v>0</v>
@@ -9554,12 +9548,12 @@
       </c>
       <c r="E450" s="10"/>
       <c r="F450" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B451" s="10">
         <v>0</v>
@@ -9572,12 +9566,12 @@
       </c>
       <c r="E451" s="10"/>
       <c r="F451" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B452" s="10">
         <v>0</v>
@@ -9590,12 +9584,12 @@
       </c>
       <c r="E452" s="10"/>
       <c r="F452" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B453" s="10">
         <v>0</v>
@@ -9608,12 +9602,12 @@
       </c>
       <c r="E453" s="10"/>
       <c r="F453" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B454" s="10">
         <v>0</v>
@@ -9626,12 +9620,12 @@
       </c>
       <c r="E454" s="10"/>
       <c r="F454" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B455" s="10">
         <v>0</v>
@@ -9644,12 +9638,12 @@
       </c>
       <c r="E455" s="10"/>
       <c r="F455" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B456" s="10">
         <v>0</v>
@@ -9662,12 +9656,12 @@
       </c>
       <c r="E456" s="10"/>
       <c r="F456" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B457" s="10">
         <v>0</v>
@@ -9680,12 +9674,12 @@
       </c>
       <c r="E457" s="10"/>
       <c r="F457" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B458" s="10">
         <v>0</v>
@@ -9698,12 +9692,12 @@
       </c>
       <c r="E458" s="10"/>
       <c r="F458" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B459" s="10">
         <v>0</v>
@@ -9716,12 +9710,12 @@
       </c>
       <c r="E459" s="10"/>
       <c r="F459" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B460" s="10">
         <v>0</v>
@@ -9734,12 +9728,12 @@
       </c>
       <c r="E460" s="10"/>
       <c r="F460" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B461" s="10">
         <v>0</v>
@@ -9752,12 +9746,12 @@
       </c>
       <c r="E461" s="10"/>
       <c r="F461" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B462" s="10">
         <v>0</v>
@@ -9770,12 +9764,12 @@
       </c>
       <c r="E462" s="10"/>
       <c r="F462" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B463" s="10">
         <v>0</v>
@@ -9788,12 +9782,12 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B464" s="10">
         <v>0</v>
@@ -9806,12 +9800,12 @@
       </c>
       <c r="E464" s="10"/>
       <c r="F464" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B465" s="10">
         <v>0</v>
@@ -9824,12 +9818,12 @@
       </c>
       <c r="E465" s="10"/>
       <c r="F465" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B466" s="3">
         <v>0</v>
@@ -9842,12 +9836,12 @@
       </c>
       <c r="E466" s="2"/>
       <c r="F466" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B467" s="3">
         <v>0</v>
@@ -9860,12 +9854,12 @@
       </c>
       <c r="E467" s="2"/>
       <c r="F467" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B468" s="3">
         <v>0</v>
@@ -9878,12 +9872,12 @@
       </c>
       <c r="E468" s="2"/>
       <c r="F468" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B469" s="10">
         <v>0</v>
@@ -9896,12 +9890,12 @@
       </c>
       <c r="E469" s="10"/>
       <c r="F469" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B470" s="3">
         <v>0</v>
@@ -9914,12 +9908,12 @@
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B471" s="3">
         <v>0</v>
@@ -9932,12 +9926,12 @@
       </c>
       <c r="E471" s="2"/>
       <c r="F471" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B472" s="10">
         <v>0</v>
@@ -9950,12 +9944,12 @@
       </c>
       <c r="E472" s="10"/>
       <c r="F472" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B473" s="10">
         <v>0</v>
@@ -9968,12 +9962,12 @@
       </c>
       <c r="E473" s="10"/>
       <c r="F473" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B474" s="3">
         <v>0</v>
@@ -9986,12 +9980,12 @@
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B475" s="3">
         <v>0</v>
@@ -10004,12 +9998,12 @@
       </c>
       <c r="E475" s="2"/>
       <c r="F475" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B476" s="3">
         <v>0</v>
@@ -10022,12 +10016,12 @@
       </c>
       <c r="E476" s="2"/>
       <c r="F476" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B477" s="10">
         <v>0</v>
@@ -10039,15 +10033,15 @@
         <v>43789</v>
       </c>
       <c r="E477" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B478" s="10">
         <v>0</v>
@@ -10060,12 +10054,12 @@
       </c>
       <c r="E478" s="10"/>
       <c r="F478" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B479" s="10">
         <v>0</v>
@@ -10078,12 +10072,12 @@
       </c>
       <c r="E479" s="10"/>
       <c r="F479" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B480" s="13">
         <v>0</v>
@@ -10095,15 +10089,15 @@
         <v>43747</v>
       </c>
       <c r="E480" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B481" s="10">
         <v>0</v>
@@ -10116,12 +10110,12 @@
       </c>
       <c r="E481" s="10"/>
       <c r="F481" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B482" s="10">
         <v>0</v>
@@ -10134,12 +10128,12 @@
       </c>
       <c r="E482" s="12"/>
       <c r="F482" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B483" s="10">
         <v>0</v>
@@ -10152,12 +10146,12 @@
       </c>
       <c r="E483" s="10"/>
       <c r="F483" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B484" s="10">
         <v>0</v>
@@ -10170,12 +10164,12 @@
       </c>
       <c r="E484" s="10"/>
       <c r="F484" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B485" s="10">
         <v>0</v>
@@ -10188,12 +10182,12 @@
       </c>
       <c r="E485" s="10"/>
       <c r="F485" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B486" s="10">
         <v>0</v>
@@ -10206,7 +10200,7 @@
       </c>
       <c r="E486" s="10"/>
       <c r="F486" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
